--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.1.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.1.xlsx
@@ -987,7 +987,7 @@
     <t xml:space="preserve">32-34</t>
   </si>
   <si>
-    <t xml:space="preserve">template name</t>
+    <t xml:space="preserve">template_name</t>
   </si>
   <si>
     <t xml:space="preserve">minimum_facings</t>
@@ -1024,9 +1024,6 @@
   </si>
   <si>
     <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template_name</t>
   </si>
   <si>
     <t xml:space="preserve">Tamaño del Producto</t>
@@ -1091,6 +1088,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPI Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">template name</t>
   </si>
   <si>
     <t xml:space="preserve">product_type </t>
@@ -4320,7 +4320,7 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -4887,10 +4887,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4903,13 +4903,11 @@
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4928,7 +4926,7 @@
       <c r="E1" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="26" t="s">
         <v>208</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -4944,31 +4942,25 @@
         <v>172</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>209</v>
+        <v>174</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="122.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>7</v>
       </c>
@@ -4999,13 +4991,19 @@
       <c r="J2" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="M2" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5308,8 +5306,8 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5353,7 +5351,7 @@
         <v>167</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
@@ -5362,13 +5360,13 @@
         <v>182</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>197</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
@@ -5419,7 +5417,7 @@
         <v>183</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>198</v>
@@ -5454,13 +5452,13 @@
       </c>
       <c r="F3" s="80"/>
       <c r="G3" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>198</v>
@@ -5495,16 +5493,16 @@
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -5536,16 +5534,16 @@
       </c>
       <c r="F5" s="80"/>
       <c r="G5" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -5577,16 +5575,16 @@
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -5618,16 +5616,16 @@
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -5659,7 +5657,7 @@
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>183</v>
@@ -5682,19 +5680,19 @@
     </row>
     <row r="9" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>70</v>
@@ -5703,7 +5701,7 @@
         <v>183</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K9" s="79" t="s">
         <v>199</v>
@@ -5775,13 +5773,13 @@
         <v>167</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -5819,16 +5817,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>236</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>237</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="85"/>
@@ -5850,16 +5848,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>235</v>
-      </c>
       <c r="G3" s="83" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>238</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>239</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="85"/>
@@ -5881,16 +5879,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>235</v>
-      </c>
       <c r="G4" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="84" t="s">
         <v>240</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>241</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="85"/>
@@ -5952,7 +5950,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>6</v>
@@ -5961,7 +5959,7 @@
         <v>167</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="H1" s="86" t="s">
         <v>7</v>
@@ -6386,7 +6384,7 @@
         <v>167</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="I1" s="86" t="s">
         <v>7</v>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.1.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -993,6 +996,9 @@
     <t xml:space="preserve">minimum_facings</t>
   </si>
   <si>
+    <t xml:space="preserve">Respeto posicion - Option 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Per bay SOS Targets</t>
   </si>
   <si>
@@ -1026,7 +1032,7 @@
     <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamaño del Producto</t>
+    <t xml:space="preserve">TAMANO DEL PRODUCTO</t>
   </si>
   <si>
     <t xml:space="preserve">iterate by</t>
@@ -1051,9 +1057,6 @@
   </si>
   <si>
     <t xml:space="preserve">Is each sub_category in the scene blocked?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
   </si>
   <si>
     <t xml:space="preserve">TOTEM,TIRAS DE PRECIO,TE,SUEROS,SIN AZUCAR,SABORES,PLATAFORMAS,Otros,NCB's,NARANJADAS,LECHE BLANCA,JUGOS Y NECTARES,ISOTONICOS,Frutales,CREMA,Colas Sin Azucar,COLAS,BEBIDAS FRUTAS,BEBIDAS ENERGETICAS,BEBIDAS DE SOYA,
@@ -1940,17 +1943,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.5506072874494"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="95.0161943319838"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -3797,7 +3800,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -3833,13 +3836,13 @@
         <v>174</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>175</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -3848,7 +3851,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4327,14 +4330,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="16" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -4471,23 +4474,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.2348178137652"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4889,8 +4892,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4899,12 +4902,12 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="15" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
@@ -4960,27 +4963,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="122.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H2" s="66" t="s">
         <v>193</v>
@@ -5068,13 +5071,13 @@
         <v>174</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>175</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -5083,7 +5086,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="192" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,7 +5105,7 @@
         <v>39</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>40</v>
@@ -5128,7 +5131,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>73</v>
@@ -5153,7 +5156,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>73</v>
@@ -5178,7 +5181,7 @@
         <v>39</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>73</v>
@@ -5202,7 +5205,7 @@
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G6" s="77" t="s">
         <v>70</v>
@@ -5211,7 +5214,7 @@
         <v>199</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>186</v>
@@ -5234,7 +5237,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>70</v>
@@ -5268,7 +5271,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>70</v>
@@ -5306,28 +5309,27 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="79" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="79" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="79" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="79" width="47.0242914979757"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="79" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="79" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="79" width="60.417004048583"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="79" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="79" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="76.6963562753036"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="79" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="79" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="79" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="79" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="79" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="79" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="79" width="6.63967611336032"/>
@@ -5359,14 +5361,14 @@
       <c r="H1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>221</v>
+      <c r="I1" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>197</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>8</v>
@@ -5390,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5417,7 +5419,7 @@
         <v>183</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>198</v>
@@ -5452,13 +5454,13 @@
       </c>
       <c r="F3" s="80"/>
       <c r="G3" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>198</v>
@@ -5493,16 +5495,16 @@
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -5534,16 +5536,16 @@
       </c>
       <c r="F5" s="80"/>
       <c r="G5" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -5575,16 +5577,16 @@
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -5616,16 +5618,16 @@
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H7" s="24" t="s">
         <v>183</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -5639,7 +5641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
         <v>18</v>
       </c>
@@ -5657,7 +5659,7 @@
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>183</v>
@@ -5678,21 +5680,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>70</v>
@@ -5740,18 +5742,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
@@ -5788,19 +5790,19 @@
         <v>174</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>175</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,18 +5923,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
@@ -5986,13 +5988,13 @@
         <v>174</v>
       </c>
       <c r="P1" s="86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="86" t="s">
         <v>175</v>
       </c>
       <c r="R1" s="86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S1" s="86" t="s">
         <v>11</v>
@@ -6001,7 +6003,7 @@
         <v>12</v>
       </c>
       <c r="U1" s="86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6344,17 +6346,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="79" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="52.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="53.4534412955466"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="79" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="79" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="79" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="79" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="79" width="11.6761133603239"/>
@@ -6399,13 +6401,13 @@
         <v>174</v>
       </c>
       <c r="M1" s="86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N1" s="86" t="s">
         <v>175</v>
       </c>
       <c r="O1" s="86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P1" s="86" t="s">
         <v>11</v>
@@ -6414,7 +6416,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.1.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$M$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="270">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1026,7 +1027,7 @@
     <t xml:space="preserve">Manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Tamaño del Producto</t>
+    <t xml:space="preserve">TAMANO DEL PRODUCTO</t>
   </si>
   <si>
     <t xml:space="preserve">iterate by</t>
@@ -1051,9 +1052,6 @@
   </si>
   <si>
     <t xml:space="preserve">Is each sub_category in the scene blocked?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
   </si>
   <si>
     <t xml:space="preserve">TOTEM,TIRAS DE PRECIO,TE,SUEROS,SIN AZUCAR,SABORES,PLATAFORMAS,Otros,NCB's,NARANJADAS,LECHE BLANCA,JUGOS Y NECTARES,ISOTONICOS,Frutales,CREMA,Colas Sin Azucar,COLAS,BEBIDAS FRUTAS,BEBIDAS ENERGETICAS,BEBIDAS DE SOYA,
@@ -1940,17 +1938,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.5506072874494"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="93.4089068825911"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
@@ -3797,7 +3795,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="12" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4056,7 +4054,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>141</v>
@@ -4267,7 +4265,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E2" s="64" t="s">
         <v>192</v>
@@ -4279,7 +4277,7 @@
         <v>173</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="64"/>
@@ -4293,7 +4291,7 @@
         <v>186</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>44</v>
@@ -4327,14 +4325,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="16" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -4464,30 +4462,30 @@
   </sheetPr>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.7368421052632"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.2712550607287"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4889,8 +4887,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4899,12 +4897,12 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="15" min="13" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
@@ -5306,28 +5304,27 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="79" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="79" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="79" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="79" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="79" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="79" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="79" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="79" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="79" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="75.3036437246964"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="79" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="79" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="79" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="79" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="79" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="79" width="7.81781376518219"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="79" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="79" width="6.63967611336032"/>
@@ -5359,7 +5356,7 @@
       <c r="H1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="26" t="s">
         <v>221</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -5678,7 +5675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>228</v>
       </c>
@@ -5691,8 +5688,8 @@
       <c r="D9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>230</v>
+      <c r="F9" s="27" t="s">
+        <v>219</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>70</v>
@@ -5701,7 +5698,7 @@
         <v>183</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K9" s="79" t="s">
         <v>199</v>
@@ -5740,18 +5737,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
@@ -5779,7 +5776,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -5817,16 +5814,16 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>235</v>
-      </c>
-      <c r="H2" s="84" t="s">
-        <v>236</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="85"/>
@@ -5848,16 +5845,16 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="G3" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>237</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>238</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="85"/>
@@ -5879,16 +5876,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>234</v>
-      </c>
       <c r="G4" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="84" t="s">
         <v>239</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>240</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="85"/>
@@ -5921,18 +5918,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="27.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
@@ -5950,7 +5947,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>6</v>
@@ -5959,7 +5956,7 @@
         <v>167</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H1" s="86" t="s">
         <v>7</v>
@@ -5968,16 +5965,16 @@
         <v>4</v>
       </c>
       <c r="J1" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="L1" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="M1" s="86" t="s">
         <v>245</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>246</v>
       </c>
       <c r="N1" s="86" t="s">
         <v>8</v>
@@ -6059,7 +6056,7 @@
         <v>124</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>131</v>
@@ -6068,18 +6065,18 @@
         <v>181</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
       <c r="N3" s="59"/>
       <c r="O3" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P3" s="59"/>
       <c r="Q3" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
@@ -6104,7 +6101,7 @@
         <v>124</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>131</v>
@@ -6113,18 +6110,18 @@
         <v>204</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
       <c r="N4" s="59"/>
       <c r="O4" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P4" s="59"/>
       <c r="Q4" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R4" s="59"/>
       <c r="S4" s="59"/>
@@ -6149,7 +6146,7 @@
         <v>124</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>131</v>
@@ -6158,18 +6155,18 @@
         <v>143</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
       <c r="M5" s="62"/>
       <c r="N5" s="59"/>
       <c r="O5" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P5" s="59"/>
       <c r="Q5" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R5" s="59"/>
       <c r="S5" s="59"/>
@@ -6191,20 +6188,20 @@
         <v>122</v>
       </c>
       <c r="F6" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="91" t="s">
         <v>251</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>252</v>
       </c>
       <c r="H6" s="62" t="s">
         <v>158</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -6232,31 +6229,31 @@
         <v>160</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="91" t="s">
         <v>251</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>252</v>
       </c>
       <c r="H7" s="62" t="s">
         <v>158</v>
       </c>
       <c r="I7" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="J7" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="K7" s="92" t="s">
+      <c r="L7" s="93" t="s">
         <v>256</v>
-      </c>
-      <c r="L7" s="93" t="s">
-        <v>257</v>
       </c>
       <c r="M7" s="93" t="s">
         <v>180</v>
@@ -6292,7 +6289,7 @@
         <v>124</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>131</v>
@@ -6301,18 +6298,18 @@
         <v>204</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
       <c r="N8" s="59"/>
       <c r="O8" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P8" s="59"/>
       <c r="Q8" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
@@ -6344,17 +6341,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="79" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="67.5910931174089"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="52.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="79" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="79" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="79" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="79" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="79" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="79" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="79" width="52.5951417004049"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="79" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="79" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="79" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="79" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="79" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="79" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="79" width="11.6761133603239"/>
@@ -6446,11 +6443,11 @@
       <c r="J2" s="62"/>
       <c r="K2" s="62"/>
       <c r="L2" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M2" s="95"/>
       <c r="N2" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O2" s="95"/>
       <c r="P2" s="95" t="s">
@@ -6490,11 +6487,11 @@
       <c r="J3" s="62"/>
       <c r="K3" s="62"/>
       <c r="L3" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M3" s="95"/>
       <c r="N3" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O3" s="95"/>
       <c r="P3" s="95" t="s">
@@ -6525,7 +6522,7 @@
         <v>108</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="62" t="s">
@@ -6534,11 +6531,11 @@
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M4" s="95"/>
       <c r="N4" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O4" s="95"/>
       <c r="P4" s="95" t="s">
@@ -6569,7 +6566,7 @@
         <v>108</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="62" t="s">
@@ -6578,11 +6575,11 @@
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="95" t="s">
@@ -6613,7 +6610,7 @@
         <v>108</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="62" t="s">
@@ -6622,11 +6619,11 @@
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M6" s="95"/>
       <c r="N6" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O6" s="95"/>
       <c r="P6" s="95" t="s">
@@ -6642,10 +6639,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="90" t="s">
         <v>259</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>260</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>132</v>
@@ -6660,7 +6657,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>137</v>
@@ -6684,13 +6681,13 @@
         <v>43</v>
       </c>
       <c r="B8" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="D8" s="97" t="s">
         <v>260</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>261</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>136</v>
@@ -6702,7 +6699,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>137</v>
@@ -6712,11 +6709,11 @@
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M8" s="98"/>
       <c r="N8" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O8" s="96"/>
       <c r="P8" s="96"/>
@@ -6733,10 +6730,10 @@
         <v>141</v>
       </c>
       <c r="C9" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>262</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>263</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>136</v>
@@ -6748,7 +6745,7 @@
         <v>124</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>134</v>
@@ -6775,7 +6772,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>146</v>
@@ -6790,7 +6787,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>137</v>
@@ -6800,11 +6797,11 @@
       </c>
       <c r="K10" s="96"/>
       <c r="L10" s="96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M10" s="96"/>
       <c r="N10" s="96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O10" s="96"/>
       <c r="P10" s="96"/>
@@ -6836,7 +6833,7 @@
         <v>124</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="40" t="s">
         <v>134</v>
@@ -6878,7 +6875,7 @@
         <v>124</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>137</v>
@@ -6888,11 +6885,11 @@
       </c>
       <c r="K12" s="96"/>
       <c r="L12" s="96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M12" s="96"/>
       <c r="N12" s="96" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O12" s="96"/>
       <c r="P12" s="96"/>
@@ -6909,10 +6906,10 @@
         <v>162</v>
       </c>
       <c r="C13" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>265</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>266</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>136</v>
@@ -6924,7 +6921,7 @@
         <v>124</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>134</v>
@@ -6951,7 +6948,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>164</v>
@@ -6966,7 +6963,7 @@
         <v>124</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>137</v>
@@ -6976,11 +6973,11 @@
       </c>
       <c r="K14" s="96"/>
       <c r="L14" s="96" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M14" s="96"/>
       <c r="N14" s="96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O14" s="96"/>
       <c r="P14" s="96"/>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.1.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.5.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="273">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1061,6 +1061,9 @@
     <t xml:space="preserve">relevant_questions</t>
   </si>
   <si>
+    <t xml:space="preserve">Primera posicion - Option 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exteriores</t>
   </si>
   <si>
@@ -1073,10 +1076,16 @@
     <t xml:space="preserve">¿El producto del enfriador CC está visible por lo menos el 50%?,¿El lateral del enfriador CC está visible por lo menos el 50%?,¿El enfriador del cliente está en 1ra posición de consumo?</t>
   </si>
   <si>
+    <t xml:space="preserve">Primera posicion - Option 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">If queston is answered "Si" then pass. If no then proceed to option 3</t>
   </si>
   <si>
     <t xml:space="preserve">¿Se hace un bloque corporativo entre rack y enfriador?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera posicion - Option 3</t>
   </si>
   <si>
     <t xml:space="preserve">If all questions are answered "No" then pass </t>
@@ -1441,7 +1450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1780,10 +1789,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1932,7 +1937,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="D20" activeCellId="1" sqref="L2:L4 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3789,7 +3794,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="L2:L4 Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4054,7 +4059,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>141</v>
@@ -4195,7 +4200,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="L2:L4 K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4265,7 +4270,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="64" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E2" s="64" t="s">
         <v>192</v>
@@ -4277,7 +4282,7 @@
         <v>173</v>
       </c>
       <c r="H2" s="62" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="64"/>
@@ -4291,7 +4296,7 @@
         <v>186</v>
       </c>
       <c r="N2" s="68" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>44</v>
@@ -4319,7 +4324,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="L2:L4 N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4462,8 +4467,8 @@
   </sheetPr>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="1" sqref="L2:L4 O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4888,7 +4893,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="1" sqref="L2:L4 J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5024,7 +5029,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="L2:L4 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5304,8 +5309,8 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M8" activeCellId="1" sqref="L2:L4 M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5731,8 +5736,8 @@
   </sheetPr>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5800,12 +5805,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -5814,29 +5819,34 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H2" s="84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="85"/>
+      <c r="J2" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>186</v>
+      </c>
       <c r="N2" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>23</v>
@@ -5845,29 +5855,34 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H3" s="84" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="85"/>
+      <c r="J3" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>186</v>
+      </c>
       <c r="N3" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="395" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -5876,19 +5891,24 @@
         <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G4" s="83" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="85"/>
+      <c r="J4" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>186</v>
+      </c>
       <c r="N4" s="0" t="s">
         <v>21</v>
       </c>
@@ -5912,7 +5932,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="L2:L4 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5937,82 +5957,82 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="86" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="86" t="s">
+      <c r="G1" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="86" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="86" t="s">
-        <v>243</v>
-      </c>
-      <c r="L1" s="86" t="s">
-        <v>244</v>
-      </c>
-      <c r="M1" s="86" t="s">
+      <c r="J1" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="K1" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="U1" s="85" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="87" t="n">
+      <c r="A2" s="86" t="n">
         <v>38</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="72" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="72"/>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>122</v>
       </c>
       <c r="F2" s="69"/>
@@ -6039,7 +6059,7 @@
       <c r="U2" s="59"/>
     </row>
     <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="89" t="n">
+      <c r="A3" s="88" t="n">
         <v>41</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -6049,14 +6069,14 @@
         <v>130</v>
       </c>
       <c r="D3" s="40"/>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="89" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>124</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>131</v>
@@ -6065,18 +6085,18 @@
         <v>181</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K3" s="62"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
       <c r="N3" s="59"/>
       <c r="O3" s="62" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P3" s="59"/>
       <c r="Q3" s="62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R3" s="59"/>
       <c r="S3" s="59"/>
@@ -6084,7 +6104,7 @@
       <c r="U3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="89" t="n">
+      <c r="A4" s="88" t="n">
         <v>46</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -6094,14 +6114,14 @@
         <v>130</v>
       </c>
       <c r="D4" s="40"/>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="89" t="s">
         <v>122</v>
       </c>
       <c r="F4" s="70" t="s">
         <v>124</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>131</v>
@@ -6110,18 +6130,18 @@
         <v>204</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
       <c r="N4" s="59"/>
       <c r="O4" s="62" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P4" s="59"/>
       <c r="Q4" s="62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R4" s="59"/>
       <c r="S4" s="59"/>
@@ -6129,7 +6149,7 @@
       <c r="U4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89" t="n">
+      <c r="A5" s="88" t="n">
         <v>51</v>
       </c>
       <c r="B5" s="40" t="s">
@@ -6139,14 +6159,14 @@
         <v>130</v>
       </c>
       <c r="D5" s="40"/>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="89" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>124</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>131</v>
@@ -6155,18 +6175,18 @@
         <v>143</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="62"/>
       <c r="M5" s="62"/>
       <c r="N5" s="59"/>
       <c r="O5" s="62" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P5" s="59"/>
       <c r="Q5" s="62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R5" s="59"/>
       <c r="S5" s="59"/>
@@ -6188,20 +6208,20 @@
         <v>122</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="91" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="G6" s="90" t="s">
+        <v>254</v>
       </c>
       <c r="H6" s="62" t="s">
         <v>158</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
@@ -6229,33 +6249,33 @@
         <v>160</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="G7" s="90" t="s">
+        <v>254</v>
       </c>
       <c r="H7" s="62" t="s">
         <v>158</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="J7" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="93" t="s">
-        <v>256</v>
-      </c>
-      <c r="M7" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="M7" s="92" t="s">
         <v>180</v>
       </c>
       <c r="N7" s="62"/>
@@ -6272,7 +6292,7 @@
       <c r="U7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="94" t="n">
+      <c r="A8" s="93" t="n">
         <v>61</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -6282,14 +6302,14 @@
         <v>130</v>
       </c>
       <c r="D8" s="40"/>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="89" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="70" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>131</v>
@@ -6298,18 +6318,18 @@
         <v>204</v>
       </c>
       <c r="J8" s="62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
       <c r="N8" s="59"/>
       <c r="O8" s="62" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P8" s="59"/>
       <c r="Q8" s="62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
@@ -6335,7 +6355,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="L2:L4 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6359,58 +6379,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="K1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="N1" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="85" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6443,20 +6463,20 @@
       <c r="J2" s="62"/>
       <c r="K2" s="62"/>
       <c r="L2" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="95"/>
+        <v>251</v>
+      </c>
+      <c r="M2" s="94"/>
       <c r="N2" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="61" t="n">
@@ -6487,20 +6507,20 @@
       <c r="J3" s="62"/>
       <c r="K3" s="62"/>
       <c r="L3" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="M3" s="95"/>
+        <v>251</v>
+      </c>
+      <c r="M3" s="94"/>
       <c r="N3" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="95" t="s">
+      <c r="Q3" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="95"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="61" t="n">
@@ -6522,7 +6542,7 @@
         <v>108</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H4" s="64"/>
       <c r="I4" s="62" t="s">
@@ -6531,20 +6551,20 @@
       <c r="J4" s="62"/>
       <c r="K4" s="62"/>
       <c r="L4" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="M4" s="95"/>
+        <v>251</v>
+      </c>
+      <c r="M4" s="94"/>
       <c r="N4" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="R4" s="95"/>
+      <c r="R4" s="94"/>
     </row>
     <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="n">
@@ -6566,7 +6586,7 @@
         <v>108</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="62" t="s">
@@ -6575,20 +6595,20 @@
       <c r="J5" s="62"/>
       <c r="K5" s="62"/>
       <c r="L5" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="M5" s="95"/>
+        <v>251</v>
+      </c>
+      <c r="M5" s="94"/>
       <c r="N5" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="95" t="s">
+      <c r="Q5" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="95"/>
+      <c r="R5" s="94"/>
     </row>
     <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="n">
@@ -6610,7 +6630,7 @@
         <v>108</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="62" t="s">
@@ -6619,30 +6639,30 @@
       <c r="J6" s="62"/>
       <c r="K6" s="62"/>
       <c r="L6" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="M6" s="95"/>
+        <v>251</v>
+      </c>
+      <c r="M6" s="94"/>
       <c r="N6" s="62" t="s">
-        <v>249</v>
-      </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="R6" s="95"/>
+      <c r="R6" s="94"/>
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89" t="n">
+      <c r="A7" s="88" t="n">
         <v>42</v>
       </c>
-      <c r="B7" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>259</v>
+      <c r="B7" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>262</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>132</v>
@@ -6657,7 +6677,7 @@
         <v>124</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>137</v>
@@ -6666,28 +6686,28 @@
         <v>181</v>
       </c>
       <c r="K7" s="40"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96" t="s">
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="95"/>
+      <c r="R7" s="94"/>
     </row>
     <row r="8" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89" t="n">
+      <c r="A8" s="88" t="n">
         <v>43</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>260</v>
+      <c r="B8" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>263</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>136</v>
@@ -6699,7 +6719,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>137</v>
@@ -6709,31 +6729,31 @@
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="M8" s="98"/>
+        <v>251</v>
+      </c>
+      <c r="M8" s="97"/>
       <c r="N8" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="95"/>
+      <c r="R8" s="94"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89" t="n">
+      <c r="A9" s="88" t="n">
         <v>47</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>261</v>
+      <c r="C9" s="98" t="s">
+        <v>264</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>136</v>
@@ -6745,7 +6765,7 @@
         <v>124</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>134</v>
@@ -6753,26 +6773,26 @@
       <c r="J9" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="95"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="89" t="n">
+      <c r="A10" s="88" t="n">
         <v>48</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="99" t="s">
-        <v>261</v>
+      <c r="C10" s="98" t="s">
+        <v>264</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>146</v>
@@ -6787,7 +6807,7 @@
         <v>124</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>137</v>
@@ -6795,29 +6815,29 @@
       <c r="J10" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="95"/>
+      <c r="R10" s="94"/>
     </row>
     <row r="11" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="89" t="n">
+      <c r="A11" s="88" t="n">
         <v>52</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="90" t="n">
+      <c r="C11" s="89" t="n">
         <v>0.25</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -6833,7 +6853,7 @@
         <v>124</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I11" s="40" t="s">
         <v>134</v>
@@ -6841,25 +6861,25 @@
       <c r="J11" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96" t="s">
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="95"/>
+      <c r="R11" s="94"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="89" t="n">
+      <c r="A12" s="88" t="n">
         <v>53</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="90" t="n">
+      <c r="C12" s="89" t="n">
         <v>0.25</v>
       </c>
       <c r="D12" s="40" t="s">
@@ -6875,7 +6895,7 @@
         <v>124</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>137</v>
@@ -6883,33 +6903,33 @@
       <c r="J12" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96" t="s">
+      <c r="K12" s="95"/>
+      <c r="L12" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="95"/>
+      <c r="R12" s="94"/>
     </row>
     <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="100" t="n">
+      <c r="A13" s="99" t="n">
         <v>62</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="99" t="s">
-        <v>264</v>
+      <c r="C13" s="98" t="s">
+        <v>267</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>136</v>
@@ -6921,7 +6941,7 @@
         <v>124</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>134</v>
@@ -6929,26 +6949,26 @@
       <c r="J13" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96" t="s">
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="95"/>
+      <c r="R13" s="94"/>
     </row>
     <row r="14" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="100" t="n">
+      <c r="A14" s="99" t="n">
         <v>63</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="99" t="s">
-        <v>264</v>
+      <c r="C14" s="98" t="s">
+        <v>267</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>164</v>
@@ -6963,7 +6983,7 @@
         <v>124</v>
       </c>
       <c r="H14" s="70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>137</v>
@@ -6971,20 +6991,20 @@
       <c r="J14" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96" t="s">
-        <v>248</v>
-      </c>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96" t="s">
+      <c r="K14" s="95"/>
+      <c r="L14" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="R14" s="95"/>
+      <c r="R14" s="94"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
